--- a/contratos/contratos-11-2012.xlsx
+++ b/contratos/contratos-11-2012.xlsx
@@ -637,16 +637,16 @@
     <t>VALENZUELA NESTOR GABRIEL</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
-  </si>
-  <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
+  </si>
+  <si>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>COOPERATIVA DE TRABAJO LA COMUNITARIA  LTDA</t>
@@ -1069,472 +1069,472 @@
     <t>96</t>
   </si>
   <si>
-    <t>3.870,00</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>30.671,00</t>
-  </si>
-  <si>
-    <t>59.400,00</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>180,48</t>
-  </si>
-  <si>
-    <t>65.280,00</t>
-  </si>
-  <si>
-    <t>79.970,00</t>
-  </si>
-  <si>
-    <t>85.768,14</t>
-  </si>
-  <si>
-    <t>10.982,00</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>22.285,49</t>
-  </si>
-  <si>
-    <t>3.026,70</t>
-  </si>
-  <si>
-    <t>5.254,12</t>
-  </si>
-  <si>
-    <t>10.208,04</t>
-  </si>
-  <si>
-    <t>918,50</t>
-  </si>
-  <si>
-    <t>10.451,95</t>
-  </si>
-  <si>
-    <t>1.220,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>10,00</t>
-  </si>
-  <si>
-    <t>368,70</t>
-  </si>
-  <si>
-    <t>51.320,92</t>
-  </si>
-  <si>
-    <t>5,50</t>
-  </si>
-  <si>
-    <t>121,80</t>
-  </si>
-  <si>
-    <t>251,15</t>
-  </si>
-  <si>
-    <t>28.930,20</t>
-  </si>
-  <si>
-    <t>3.322,00</t>
-  </si>
-  <si>
-    <t>25.708,49</t>
-  </si>
-  <si>
-    <t>62,20</t>
-  </si>
-  <si>
-    <t>4.018,30</t>
-  </si>
-  <si>
-    <t>2.829,40</t>
-  </si>
-  <si>
-    <t>1.815,00</t>
-  </si>
-  <si>
-    <t>8.866,00</t>
-  </si>
-  <si>
-    <t>522,87</t>
-  </si>
-  <si>
-    <t>55.018,10</t>
-  </si>
-  <si>
-    <t>1.099,88</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>608,14</t>
-  </si>
-  <si>
-    <t>2.097,00</t>
-  </si>
-  <si>
-    <t>2.230,30</t>
-  </si>
-  <si>
-    <t>4.770,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>18,86</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>1.087,10</t>
-  </si>
-  <si>
-    <t>1.038,16</t>
-  </si>
-  <si>
-    <t>17.978,78</t>
-  </si>
-  <si>
-    <t>53,00</t>
-  </si>
-  <si>
-    <t>184,47</t>
-  </si>
-  <si>
-    <t>39,30</t>
-  </si>
-  <si>
-    <t>152,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>88,20</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>7.457,00</t>
-  </si>
-  <si>
-    <t>4.747,83</t>
-  </si>
-  <si>
-    <t>1.035,00</t>
-  </si>
-  <si>
-    <t>4.850,00</t>
-  </si>
-  <si>
-    <t>726,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>10.255,00</t>
-  </si>
-  <si>
-    <t>1.181,17</t>
-  </si>
-  <si>
-    <t>2.951,80</t>
-  </si>
-  <si>
-    <t>49,00</t>
-  </si>
-  <si>
-    <t>144,75</t>
-  </si>
-  <si>
-    <t>42.020,00</t>
-  </si>
-  <si>
-    <t>182.100,00</t>
-  </si>
-  <si>
-    <t>25,30</t>
-  </si>
-  <si>
-    <t>3.716,00</t>
-  </si>
-  <si>
-    <t>3.210,00</t>
-  </si>
-  <si>
-    <t>121,48</t>
-  </si>
-  <si>
-    <t>69,69</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>100,48</t>
-  </si>
-  <si>
-    <t>20.100,00</t>
-  </si>
-  <si>
-    <t>18.161,80</t>
-  </si>
-  <si>
-    <t>1.038,00</t>
-  </si>
-  <si>
-    <t>202,75</t>
-  </si>
-  <si>
-    <t>208,10</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>5.379,50</t>
-  </si>
-  <si>
-    <t>1.041,74</t>
-  </si>
-  <si>
-    <t>568,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>1.275,00</t>
-  </si>
-  <si>
-    <t>39,00</t>
-  </si>
-  <si>
-    <t>2.135,00</t>
-  </si>
-  <si>
-    <t>3.872,00</t>
-  </si>
-  <si>
-    <t>701,80</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>46.542,00</t>
-  </si>
-  <si>
-    <t>312,90</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>2.014,50</t>
-  </si>
-  <si>
-    <t>707,18</t>
-  </si>
-  <si>
-    <t>1.290,00</t>
-  </si>
-  <si>
-    <t>2.137,65</t>
-  </si>
-  <si>
-    <t>1.600,75</t>
-  </si>
-  <si>
-    <t>11.340,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>331,50</t>
-  </si>
-  <si>
-    <t>11.139,45</t>
-  </si>
-  <si>
-    <t>2.450,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>3.920,00</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>2.190,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>935,04</t>
-  </si>
-  <si>
-    <t>3.225,90</t>
-  </si>
-  <si>
-    <t>4.023,91</t>
-  </si>
-  <si>
-    <t>3.804,00</t>
-  </si>
-  <si>
-    <t>4.822,00</t>
-  </si>
-  <si>
-    <t>317,00</t>
-  </si>
-  <si>
-    <t>347,45</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>551,96</t>
-  </si>
-  <si>
-    <t>82,35</t>
-  </si>
-  <si>
-    <t>425,00</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>18.560,00</t>
-  </si>
-  <si>
-    <t>4.302,00</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>293,00</t>
-  </si>
-  <si>
-    <t>841,00</t>
-  </si>
-  <si>
-    <t>386,26</t>
-  </si>
-  <si>
-    <t>26.880,00</t>
-  </si>
-  <si>
-    <t>1.361,80</t>
-  </si>
-  <si>
-    <t>6.936,70</t>
-  </si>
-  <si>
-    <t>781,80</t>
-  </si>
-  <si>
-    <t>98,91</t>
-  </si>
-  <si>
-    <t>3.407,36</t>
-  </si>
-  <si>
-    <t>13.600,00</t>
-  </si>
-  <si>
-    <t>538.941,85</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>14.800,00</t>
-  </si>
-  <si>
-    <t>25.652,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>50.200,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>33.300,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>49.628,67</t>
-  </si>
-  <si>
-    <t>136.000,00</t>
-  </si>
-  <si>
-    <t>99.900,00</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>1.170,00</t>
-  </si>
-  <si>
-    <t>1.860,00</t>
+    <t>3870.00</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>30671.00</t>
+  </si>
+  <si>
+    <t>59400.00</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>180.48</t>
+  </si>
+  <si>
+    <t>65280.00</t>
+  </si>
+  <si>
+    <t>79970.00</t>
+  </si>
+  <si>
+    <t>85768.14</t>
+  </si>
+  <si>
+    <t>10982.00</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>22285.49</t>
+  </si>
+  <si>
+    <t>3026.70</t>
+  </si>
+  <si>
+    <t>5254.12</t>
+  </si>
+  <si>
+    <t>10208.04</t>
+  </si>
+  <si>
+    <t>918.50</t>
+  </si>
+  <si>
+    <t>10451.95</t>
+  </si>
+  <si>
+    <t>1220.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>368.70</t>
+  </si>
+  <si>
+    <t>51320.92</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>121.80</t>
+  </si>
+  <si>
+    <t>251.15</t>
+  </si>
+  <si>
+    <t>28930.20</t>
+  </si>
+  <si>
+    <t>3322.00</t>
+  </si>
+  <si>
+    <t>25708.49</t>
+  </si>
+  <si>
+    <t>62.20</t>
+  </si>
+  <si>
+    <t>4018.30</t>
+  </si>
+  <si>
+    <t>2829.40</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>8866.00</t>
+  </si>
+  <si>
+    <t>522.87</t>
+  </si>
+  <si>
+    <t>55018.10</t>
+  </si>
+  <si>
+    <t>1099.88</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>608.14</t>
+  </si>
+  <si>
+    <t>2097.00</t>
+  </si>
+  <si>
+    <t>2230.30</t>
+  </si>
+  <si>
+    <t>4770.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>18.86</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>1087.10</t>
+  </si>
+  <si>
+    <t>1038.16</t>
+  </si>
+  <si>
+    <t>17978.78</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>184.47</t>
+  </si>
+  <si>
+    <t>39.30</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>88.20</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>7457.00</t>
+  </si>
+  <si>
+    <t>4747.83</t>
+  </si>
+  <si>
+    <t>1035.00</t>
+  </si>
+  <si>
+    <t>4850.00</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>10255.00</t>
+  </si>
+  <si>
+    <t>1181.17</t>
+  </si>
+  <si>
+    <t>2951.80</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>144.75</t>
+  </si>
+  <si>
+    <t>42020.00</t>
+  </si>
+  <si>
+    <t>182100.00</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>3716.00</t>
+  </si>
+  <si>
+    <t>3210.00</t>
+  </si>
+  <si>
+    <t>121.48</t>
+  </si>
+  <si>
+    <t>69.69</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>100.48</t>
+  </si>
+  <si>
+    <t>20100.00</t>
+  </si>
+  <si>
+    <t>18161.80</t>
+  </si>
+  <si>
+    <t>1038.00</t>
+  </si>
+  <si>
+    <t>202.75</t>
+  </si>
+  <si>
+    <t>208.10</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>5379.50</t>
+  </si>
+  <si>
+    <t>1041.74</t>
+  </si>
+  <si>
+    <t>568.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>1275.00</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>2135.00</t>
+  </si>
+  <si>
+    <t>3872.00</t>
+  </si>
+  <si>
+    <t>701.80</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>46542.00</t>
+  </si>
+  <si>
+    <t>312.90</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>2014.50</t>
+  </si>
+  <si>
+    <t>707.18</t>
+  </si>
+  <si>
+    <t>1290.00</t>
+  </si>
+  <si>
+    <t>2137.65</t>
+  </si>
+  <si>
+    <t>1600.75</t>
+  </si>
+  <si>
+    <t>11340.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>331.50</t>
+  </si>
+  <si>
+    <t>11139.45</t>
+  </si>
+  <si>
+    <t>2450.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>3920.00</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>2190.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>935.04</t>
+  </si>
+  <si>
+    <t>3225.90</t>
+  </si>
+  <si>
+    <t>4023.91</t>
+  </si>
+  <si>
+    <t>3804.00</t>
+  </si>
+  <si>
+    <t>4822.00</t>
+  </si>
+  <si>
+    <t>317.00</t>
+  </si>
+  <si>
+    <t>347.45</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>551.96</t>
+  </si>
+  <si>
+    <t>82.35</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>18560.00</t>
+  </si>
+  <si>
+    <t>4302.00</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>293.00</t>
+  </si>
+  <si>
+    <t>841.00</t>
+  </si>
+  <si>
+    <t>386.26</t>
+  </si>
+  <si>
+    <t>26880.00</t>
+  </si>
+  <si>
+    <t>1361.80</t>
+  </si>
+  <si>
+    <t>6936.70</t>
+  </si>
+  <si>
+    <t>781.80</t>
+  </si>
+  <si>
+    <t>98.91</t>
+  </si>
+  <si>
+    <t>3407.36</t>
+  </si>
+  <si>
+    <t>13600.00</t>
+  </si>
+  <si>
+    <t>538941.85</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>14800.00</t>
+  </si>
+  <si>
+    <t>25652.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>50200.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>33300.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>49628.67</t>
+  </si>
+  <si>
+    <t>136000.00</t>
+  </si>
+  <si>
+    <t>99900.00</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>1170.00</t>
+  </si>
+  <si>
+    <t>1860.00</t>
   </si>
 </sst>
 </file>
